--- a/Exel/data_goods.xlsx
+++ b/Exel/data_goods.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,19 +618,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Байк</t>
+          <t>cereals_tasty</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bike</t>
+          <t>cereals_tasty</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D7" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -640,61 +640,61 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нет </t>
+          <t xml:space="preserve">Да  </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cereals_tasty</t>
+          <t>малышка на миллион</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cereals_tasty</t>
+          <t>million_dollar_baby</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
+        <v>1999</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Да  </t>
+          <t xml:space="preserve">Нет </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>малышка на миллион</t>
+          <t xml:space="preserve">профессиональный игрок </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>million_dollar_baby</t>
+          <t>professional_poker_player</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1999</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -705,51 +705,51 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">профессиональный игрок </t>
+          <t>хорошая книга</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>professional_poker_player</t>
+          <t>good_book</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="F10" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нет </t>
+          <t xml:space="preserve">Да  </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>хорошая книга</t>
+          <t>Розы еще одни</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>good_book</t>
+          <t>rose_for_something</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>400</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -763,25 +763,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Розы еще одни</t>
+          <t>Оплатами</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>rose_for_something</t>
+          <t>rose</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>400</v>
+        <v>676</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -792,25 +792,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Оплатами</t>
+          <t>Ghhbb</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>rose</t>
+          <t>rrrr</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>676</v>
+        <v>67</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F13" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -821,25 +821,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ghhbb</t>
+          <t>Bnnnmm</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>rrrr</t>
+          <t>doghouse</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>67</v>
+        <v>8890.07</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>9</v>
       </c>
-      <c r="E14" t="n">
-        <v>60</v>
-      </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1234</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -850,25 +850,25 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bnnnmm</t>
+          <t>Будильник</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>doghouse</t>
+          <t>clock</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8890.07</v>
+        <v>5600</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F15" t="n">
-        <v>1234</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -879,22 +879,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Будильник</t>
+          <t>Дача</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>clock</t>
+          <t>dacha</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5600</v>
+        <v>688</v>
       </c>
       <c r="D16" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -908,25 +908,25 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Дача</t>
+          <t>букет который ваня должен</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>dacha</t>
+          <t>flowers_for_vera</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>688</v>
+        <v>77</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -937,25 +937,25 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>букет который ваня должен</t>
+          <t>Розы Silva Pink</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>flowers_for_vera</t>
+          <t>rose_silva_pink</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>5000</v>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -966,25 +966,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Розы Silva Pink</t>
+          <t>Балабан</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>rose_silva_pink</t>
+          <t>zelensky</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1082,12 +1082,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Синий куст</t>
+          <t>кроссовки синие</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>blue_cust</t>
+          <t>sneakers_blue</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1111,12 +1111,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>кроссовки синие</t>
+          <t>волосатый парень леры</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>sneakers_blue</t>
+          <t>boyfriend_of_lera_near_gwagon</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1133,23 +1133,23 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нет </t>
+          <t xml:space="preserve">Да  </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>волосатый парень леры</t>
+          <t>desk</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>boyfriend_of_lera_near_gwagon</t>
+          <t>desk</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1169,16 +1169,16 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>desk</t>
+          <t>tesrrr</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>desk</t>
+          <t>tesrrrr</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1192,6 +1192,35 @@
       <c r="G26" t="inlineStr">
         <is>
           <t xml:space="preserve">Да  </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Синий куст</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>blue_cust</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нет </t>
         </is>
       </c>
     </row>

--- a/Exel/data_goods.xlsx
+++ b/Exel/data_goods.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,141 +473,141 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>margarita_verygood</t>
+          <t>monaco_town</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>margarita_verygodd</t>
+          <t>monaco_town</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>790</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нет </t>
+          <t xml:space="preserve">Да  </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>старая машина</t>
+          <t>cereals_tasty</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>old_retro_russian_car</t>
+          <t>cereals_tasty</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D3" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нет </t>
+          <t xml:space="preserve">Да  </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>самый секси мальчик</t>
+          <t>margarita_verygood</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>samyi_seksi</t>
+          <t>margarita_verygodd</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1000</v>
+        <v>790</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Да  </t>
+          <t xml:space="preserve">Нет </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>кроссовки</t>
+          <t>старая машина</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sneakers_yyyy</t>
+          <t>old_retro_russian_car</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>566.6</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Да  </t>
+          <t xml:space="preserve">Нет </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>monaco_town</t>
+          <t>самый секси мальчик</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>monaco_town</t>
+          <t>samyi_seksi</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>76</v>
+        <v>1000</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>22</v>
-      </c>
-      <c r="F6" t="n">
-        <v>34</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -618,16 +618,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cereals_tasty</t>
+          <t>кроссовки</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cereals_tasty</t>
+          <t>sneakers_yyyy</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>566.6</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -647,83 +647,83 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>малышка на миллион</t>
+          <t>Бургер</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>million_dollar_baby</t>
+          <t>burger</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1999</v>
+        <v>777</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нет </t>
+          <t xml:space="preserve">Да  </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">профессиональный игрок </t>
+          <t>Оплатами</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>professional_poker_player</t>
+          <t>rose</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>676</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="F9" t="n">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нет </t>
+          <t xml:space="preserve">Да  </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>хорошая книга</t>
+          <t>Bnnnmm</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>good_book</t>
+          <t>doghouse</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>8890.07</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1234</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -734,22 +734,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Розы еще одни</t>
+          <t>Будильник</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>rose_for_something</t>
+          <t>clock</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>400</v>
+        <v>5600</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -763,25 +763,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Оплатами</t>
+          <t>Дача</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>rose</t>
+          <t>dacha</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -792,25 +792,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ghhbb</t>
+          <t>букет который ваня должен</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>rrrr</t>
+          <t>flowers_for_vera</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -821,25 +821,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bnnnmm</t>
+          <t>Розы Silva Pink</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>doghouse</t>
+          <t>rose_silva_pink</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8890.07</v>
+        <v>99</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>5000</v>
       </c>
       <c r="F14" t="n">
-        <v>1234</v>
+        <v>1000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -850,22 +850,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Будильник</t>
+          <t>Балабан</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>clock</t>
+          <t>zelensky</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -879,83 +879,83 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Дача</t>
+          <t>малышка на миллион</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>dacha</t>
+          <t>million_dollar_baby</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>688</v>
+        <v>1999</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Да  </t>
+          <t xml:space="preserve">Нет </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>букет который ваня должен</t>
+          <t xml:space="preserve">профессиональный игрок </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>flowers_for_vera</t>
+          <t>professional_poker_player</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Да  </t>
+          <t xml:space="preserve">Нет </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Розы Silva Pink</t>
+          <t>хорошая книга</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>rose_silva_pink</t>
+          <t>good_book</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>5000</v>
+        <v>77</v>
       </c>
       <c r="F18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -966,16 +966,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Балабан</t>
+          <t>Формула</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>zelensky</t>
+          <t>formul</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -988,55 +988,55 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Да  </t>
+          <t xml:space="preserve">Нет </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>лучшая пара мира</t>
+          <t>Розы еще одни</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>best_couple</t>
+          <t>rose_for_something</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>99999999</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нет </t>
+          <t xml:space="preserve">Да  </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ivan_boy</t>
+          <t>кроссовки синие</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ivan_boy</t>
+          <t>sneakers_blue</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1046,32 +1046,32 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Да  </t>
+          <t xml:space="preserve">Нет </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Розы черные</t>
+          <t>desk</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>rose_black</t>
+          <t>desk</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>303030</v>
+        <v>700</v>
       </c>
       <c r="D22" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>6666</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1082,12 +1082,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>кроссовки синие</t>
+          <t>tesrrr</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>sneakers_blue</t>
+          <t>tesrrrr</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нет </t>
+          <t xml:space="preserve">Да  </t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1140,16 +1140,16 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>desk</t>
+          <t>Синий куст</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>desk</t>
+          <t>blue_cust</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1169,12 +1169,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>tesrrr</t>
+          <t>лучшая пара мира</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tesrrrr</t>
+          <t>best_couple</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1187,27 +1187,27 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Да  </t>
+          <t xml:space="preserve">Нет </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Синий куст</t>
+          <t>Бабаю</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>blue_cust</t>
+          <t>bob</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1219,6 +1219,93 @@
         <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Да  </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Павел</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>tape</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>890</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>90</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Да  </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ivan_boy</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ivan_boy</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>900</v>
+      </c>
+      <c r="D29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Да  </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Розы черные</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>rose_black</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>303030</v>
+      </c>
+      <c r="D30" t="n">
+        <v>990</v>
+      </c>
+      <c r="E30" t="n">
+        <v>6666</v>
+      </c>
+      <c r="F30" t="n">
+        <v>77</v>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t xml:space="preserve">Нет </t>
         </is>

--- a/Exel/data_goods.xlsx
+++ b/Exel/data_goods.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,45 +473,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>monaco_town</t>
+          <t>старая машина</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>monaco_town</t>
+          <t>old_retro_russian_car</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F2" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Да  </t>
+          <t xml:space="preserve">Нет </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>cereals_tasty</t>
+          <t>самый секси мальчик</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cereals_tasty</t>
+          <t>samyi_seksi</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -531,83 +531,83 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>margarita_verygood</t>
+          <t>кроссовки</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>margarita_verygodd</t>
+          <t>sneakers_yyyy</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>790</v>
+        <v>566.6</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нет </t>
+          <t xml:space="preserve">Да  </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>старая машина</t>
+          <t>Бургер</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>old_retro_russian_car</t>
+          <t>burger</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>777</v>
       </c>
       <c r="D5" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нет </t>
+          <t xml:space="preserve">Да  </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>самый секси мальчик</t>
+          <t>monaco_town</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>samyi_seksi</t>
+          <t>monaco_town</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1000</v>
+        <v>76</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -618,16 +618,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>кроссовки</t>
+          <t>cereals_tasty</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sneakers_yyyy</t>
+          <t>cereals_tasty</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>566.6</v>
+        <v>55</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -647,54 +647,54 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Бургер</t>
+          <t>margarita_verygood</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>burger</t>
+          <t>margarita_verygodd</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Да  </t>
+          <t xml:space="preserve">Нет </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Оплатами</t>
+          <t>Розы Silva Pink</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>rose</t>
+          <t>rose_silva_pink</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>676</v>
+        <v>99</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>77</v>
+        <v>5000</v>
       </c>
       <c r="F9" t="n">
-        <v>56</v>
+        <v>1000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -705,25 +705,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bnnnmm</t>
+          <t>Балабан</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>doghouse</t>
+          <t>zelensky</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8890.07</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1234</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -734,83 +734,83 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Будильник</t>
+          <t>малышка на миллион</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>clock</t>
+          <t>million_dollar_baby</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5600</v>
+        <v>1999</v>
       </c>
       <c r="D11" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Да  </t>
+          <t xml:space="preserve">Нет </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Дача</t>
+          <t xml:space="preserve">профессиональный игрок </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>dacha</t>
+          <t>professional_poker_player</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>688</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Да  </t>
+          <t xml:space="preserve">Нет </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>букет который ваня должен</t>
+          <t>хорошая книга</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>flowers_for_vera</t>
+          <t>good_book</t>
         </is>
       </c>
       <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" t="n">
         <v>77</v>
       </c>
-      <c r="D13" t="n">
-        <v>6</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7</v>
-      </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -821,48 +821,48 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Розы Silva Pink</t>
+          <t>Формула</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>rose_silva_pink</t>
+          <t>formul</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>99</v>
+        <v>9000</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Да  </t>
+          <t xml:space="preserve">Нет </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Балабан</t>
+          <t>Розы еще одни</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>zelensky</t>
+          <t>rose_for_something</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -879,80 +879,80 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>малышка на миллион</t>
+          <t>Оплатами</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>million_dollar_baby</t>
+          <t>rose</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1999</v>
+        <v>676</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F16" t="n">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нет </t>
+          <t xml:space="preserve">Да  </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">профессиональный игрок </t>
+          <t>Bnnnmm</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>professional_poker_player</t>
+          <t>doghouse</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>8890.07</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>18</v>
+        <v>1234</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нет </t>
+          <t xml:space="preserve">Да  </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>хорошая книга</t>
+          <t>Будильник</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>good_book</t>
+          <t>clock</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>5600</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E18" t="n">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -966,16 +966,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Формула</t>
+          <t>Дача</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>formul</t>
+          <t>dacha</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9000</v>
+        <v>688</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -988,32 +988,32 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нет </t>
+          <t xml:space="preserve">Да  </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Розы еще одни</t>
+          <t>букет который ваня должен</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>rose_for_something</t>
+          <t>flowers_for_vera</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>400</v>
+        <v>77</v>
       </c>
       <c r="D20" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1024,16 +1024,16 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>кроссовки синие</t>
+          <t>matlab</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>sneakers_blue</t>
+          <t>matlab</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1046,26 +1046,26 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нет </t>
+          <t xml:space="preserve">Да  </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>desk</t>
+          <t>ivan_boy</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>desk</t>
+          <t>ivan_boy</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1075,52 +1075,52 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нет </t>
+          <t xml:space="preserve">Да  </t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>tesrrr</t>
+          <t>Розы черные</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>tesrrrr</t>
+          <t>rose_black</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>303030</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6666</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Да  </t>
+          <t xml:space="preserve">Нет </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>волосатый парень леры</t>
+          <t>кроссовки синие</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>boyfriend_of_lera_near_gwagon</t>
+          <t>sneakers_blue</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1133,23 +1133,23 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Да  </t>
+          <t xml:space="preserve">Нет </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Синий куст</t>
+          <t>desk</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>blue_cust</t>
+          <t>desk</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1162,19 +1162,19 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Да  </t>
+          <t xml:space="preserve">Нет </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>лучшая пара мира</t>
+          <t>tesrrr</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>best_couple</t>
+          <t>tesrrrr</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1187,23 +1187,23 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нет </t>
+          <t xml:space="preserve">Да  </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Бабаю</t>
+          <t>волосатый парень леры</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bob</t>
+          <t>boyfriend_of_lera_near_gwagon</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1227,48 +1227,48 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Павел</t>
+          <t>лучшая пара мира</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>tape</t>
+          <t>best_couple</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>890</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>90</v>
       </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Да  </t>
+          <t xml:space="preserve">Нет </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ivan_boy</t>
+          <t>Бабаю</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ivan_boy</t>
+          <t>bob</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>900</v>
+        <v>90</v>
       </c>
       <c r="D29" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1285,29 +1285,58 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Розы черные</t>
+          <t>Синий куст</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>rose_black</t>
+          <t>blue_cust</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>303030</v>
+        <v>9</v>
       </c>
       <c r="D30" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>6666</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нет </t>
+          <t xml:space="preserve">Да  </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Павел</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>tape</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>890</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>90</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Да  </t>
         </is>
       </c>
     </row>

--- a/Exel/data_goods.xlsx
+++ b/Exel/data_goods.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>500</v>
       </c>
       <c r="D2" t="n">
         <v>45</v>
@@ -676,51 +676,51 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Розы Silva Pink</t>
+          <t xml:space="preserve">профессиональный игрок </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>rose_silva_pink</t>
+          <t>professional_poker_player</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>5000</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Да  </t>
+          <t xml:space="preserve">Нет </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Балабан</t>
+          <t>хорошая книга</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>zelensky</t>
+          <t>good_book</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -734,25 +734,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>малышка на миллион</t>
+          <t>Формула</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>million_dollar_baby</t>
+          <t>formul</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1999</v>
+        <v>9000</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -763,54 +763,54 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">профессиональный игрок </t>
+          <t>Розы еще одни</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>professional_poker_player</t>
+          <t>rose_for_something</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нет </t>
+          <t xml:space="preserve">Да  </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>хорошая книга</t>
+          <t>Оплатами</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>good_book</t>
+          <t>rose</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>676</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>77</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -821,51 +821,51 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Формула</t>
+          <t>Bnnnmm</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>formul</t>
+          <t>doghouse</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9000</v>
+        <v>8890.07</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1234</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нет </t>
+          <t xml:space="preserve">Да  </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Розы еще одни</t>
+          <t>Будильник</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>rose_for_something</t>
+          <t>clock</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>400</v>
+        <v>5600</v>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -879,25 +879,25 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Оплатами</t>
+          <t>Дача</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>rose</t>
+          <t>dacha</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -908,25 +908,25 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bnnnmm</t>
+          <t>букет который ваня должен</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>doghouse</t>
+          <t>flowers_for_vera</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8890.07</v>
+        <v>77</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>1234</v>
+        <v>8</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -937,25 +937,25 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Будильник</t>
+          <t>Розы Silva Pink</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>clock</t>
+          <t>rose_silva_pink</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5600</v>
+        <v>99</v>
       </c>
       <c r="D18" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>90</v>
+        <v>5000</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -966,16 +966,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Дача</t>
+          <t>Балабан</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>dacha</t>
+          <t>zelensky</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>688</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -995,51 +995,51 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>букет который ваня должен</t>
+          <t>малышка на миллион</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>flowers_for_vera</t>
+          <t>million_dollar_baby</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>77</v>
+        <v>1999</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Да  </t>
+          <t xml:space="preserve">Нет </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>matlab</t>
+          <t>Павел</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>matlab</t>
+          <t>tape</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>560</v>
+        <v>890</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ivan_boy</t>
+          <t>matlab</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ivan_boy</t>
+          <t>matlab</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>900</v>
+        <v>560</v>
       </c>
       <c r="D22" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1082,54 +1082,54 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Розы черные</t>
+          <t>ivan_boy</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>rose_black</t>
+          <t>ivan_boy</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>303030</v>
+        <v>900</v>
       </c>
       <c r="D23" t="n">
-        <v>990</v>
+        <v>100000</v>
       </c>
       <c r="E23" t="n">
-        <v>6666</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нет </t>
+          <t xml:space="preserve">Да  </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>кроссовки синие</t>
+          <t>Розы черные</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>sneakers_blue</t>
+          <t>rose_black</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>303030</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>6666</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1140,16 +1140,16 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>desk</t>
+          <t>кроссовки синие</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>desk</t>
+          <t>sneakers_blue</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1169,16 +1169,16 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>tesrrr</t>
+          <t>desk</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tesrrrr</t>
+          <t>desk</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1191,23 +1191,23 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Да  </t>
+          <t xml:space="preserve">Нет </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>волосатый парень леры</t>
+          <t>tesrrr</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>boyfriend_of_lera_near_gwagon</t>
+          <t>tesrrrr</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1227,16 +1227,16 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>лучшая пара мира</t>
+          <t>волосатый парень леры</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>best_couple</t>
+          <t>boyfriend_of_lera_near_gwagon</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1245,56 +1245,56 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нет </t>
+          <t xml:space="preserve">Да  </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Бабаю</t>
+          <t>лучшая пара мира</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>bob</t>
+          <t>best_couple</t>
         </is>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>90</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Да  </t>
+          <t xml:space="preserve">Нет </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Синий куст</t>
+          <t>Бабаю</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>blue_cust</t>
+          <t>bob</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1314,22 +1314,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Павел</t>
+          <t>Синий куст</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>tape</t>
+          <t>blue_cust</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>890</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
